--- a/assets/excel/Warehouse.xlsx
+++ b/assets/excel/Warehouse.xlsx
@@ -175,11 +175,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,26 +465,26 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -532,7 +532,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
